--- a/summary_stat_folder/supplementary figure 11 summary stats.xlsx
+++ b/summary_stat_folder/supplementary figure 11 summary stats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">avg_effect</t>
   </si>
@@ -47,34 +47,16 @@
     <t xml:space="preserve">α15.2&amp;α20.4&amp;α48.4&amp;α51.6</t>
   </si>
   <si>
-    <t xml:space="preserve">α15.2&amp;α20.4&amp;α51.5&amp;α51.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">α15.2&amp;α46.4&amp;α48.4&amp;α51.5</t>
   </si>
   <si>
     <t xml:space="preserve">α15.2&amp;α46.4&amp;α48.4&amp;α51.6</t>
   </si>
   <si>
-    <t xml:space="preserve">α15.2&amp;α46.4&amp;α51.5&amp;α51.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">α15.2&amp;α48.4&amp;α51.5&amp;α51.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">α20.4&amp;α46.4&amp;α48.4&amp;α51.5</t>
   </si>
   <si>
     <t xml:space="preserve">α20.4&amp;α46.4&amp;α48.4&amp;α51.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">α20.4&amp;α46.4&amp;α51.5&amp;α51.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">α20.4&amp;α48.4&amp;α51.5&amp;α51.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">α46.4&amp;α48.4&amp;α51.5&amp;α51.6</t>
   </si>
 </sst>
 </file>
@@ -492,10 +474,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.10753378150297</v>
+        <v>7.25199557456866</v>
       </c>
       <c r="B7" t="n">
-        <v>0.408775981524249</v>
+        <v>0.415704387990762</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -506,10 +488,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.25199557456866</v>
+        <v>6.59748514915797</v>
       </c>
       <c r="B8" t="n">
-        <v>0.415704387990762</v>
+        <v>0.420323325635104</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -520,10 +502,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.59748514915797</v>
+        <v>10.5221158951338</v>
       </c>
       <c r="B9" t="n">
-        <v>0.420323325635104</v>
+        <v>0.309468822170901</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -534,100 +516,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.83771204401559</v>
+        <v>9.86760546972309</v>
       </c>
       <c r="B10" t="n">
-        <v>0.415704387990762</v>
+        <v>0.311778290993072</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>7.06402025151508</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.406466512702079</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10.5221158951338</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.309468822170901</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>9.86760546972309</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.311778290993072</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>10.1078323645807</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.309468822170901</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>10.3341405720802</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.300230946882217</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>8.06431883459282</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.284064665127021</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
